--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N2">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O2">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P2">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q2">
-        <v>95.8556904865771</v>
+        <v>11606.61166799265</v>
       </c>
       <c r="R2">
-        <v>95.8556904865771</v>
+        <v>104459.5050119339</v>
       </c>
       <c r="S2">
-        <v>0.002113989811314272</v>
+        <v>0.05034348805691852</v>
       </c>
       <c r="T2">
-        <v>0.002113989811314272</v>
+        <v>0.05034348805691851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N3">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O3">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P3">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q3">
-        <v>20.55481722220864</v>
+        <v>39.50442177169966</v>
       </c>
       <c r="R3">
-        <v>20.55481722220864</v>
+        <v>355.539795945297</v>
       </c>
       <c r="S3">
-        <v>0.0004533134544293015</v>
+        <v>0.0001713497825677658</v>
       </c>
       <c r="T3">
-        <v>0.0004533134544293015</v>
+        <v>0.0001713497825677657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N4">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O4">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P4">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q4">
-        <v>1540.886752228393</v>
+        <v>3365.129305184649</v>
       </c>
       <c r="R4">
-        <v>1540.886752228393</v>
+        <v>30286.16374666184</v>
       </c>
       <c r="S4">
-        <v>0.03398253017702799</v>
+        <v>0.01459619325877296</v>
       </c>
       <c r="T4">
-        <v>0.03398253017702799</v>
+        <v>0.01459619325877296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N5">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O5">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P5">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q5">
-        <v>116.4150531141638</v>
+        <v>471.838095756263</v>
       </c>
       <c r="R5">
-        <v>116.4150531141638</v>
+        <v>4246.542861806367</v>
       </c>
       <c r="S5">
-        <v>0.00256740350956435</v>
+        <v>0.002046590014208067</v>
       </c>
       <c r="T5">
-        <v>0.00256740350956435</v>
+        <v>0.002046590014208067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N6">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O6">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P6">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q6">
-        <v>49.08222254390952</v>
+        <v>3134.040856495127</v>
       </c>
       <c r="R6">
-        <v>49.08222254390952</v>
+        <v>28206.36770845614</v>
       </c>
       <c r="S6">
-        <v>0.001082453403108228</v>
+        <v>0.01359385089655065</v>
       </c>
       <c r="T6">
-        <v>0.001082453403108228</v>
+        <v>0.01359385089655064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N7">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O7">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P7">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q7">
-        <v>10.52494753445132</v>
+        <v>10.66706420325467</v>
       </c>
       <c r="R7">
-        <v>10.52494753445132</v>
+        <v>96.003577829292</v>
       </c>
       <c r="S7">
-        <v>0.000232115920708568</v>
+        <v>4.626821631328092E-05</v>
       </c>
       <c r="T7">
-        <v>0.000232115920708568</v>
+        <v>4.626821631328092E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N8">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O8">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P8">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q8">
-        <v>789.0000698333774</v>
+        <v>908.6590498173998</v>
       </c>
       <c r="R8">
-        <v>789.0000698333774</v>
+        <v>8177.931448356599</v>
       </c>
       <c r="S8">
-        <v>0.01740051216873321</v>
+        <v>0.003941293749703331</v>
       </c>
       <c r="T8">
-        <v>0.01740051216873321</v>
+        <v>0.003941293749703331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N9">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O9">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P9">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q9">
-        <v>59.60949752076084</v>
+        <v>127.406680954868</v>
       </c>
       <c r="R9">
-        <v>59.60949752076084</v>
+        <v>1146.660128593812</v>
       </c>
       <c r="S9">
-        <v>0.001314620652950153</v>
+        <v>0.0005526243924151496</v>
       </c>
       <c r="T9">
-        <v>0.001314620652950153</v>
+        <v>0.0005526243924151496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N10">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O10">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P10">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q10">
-        <v>2281.816326805726</v>
+        <v>156343.0799547148</v>
       </c>
       <c r="R10">
-        <v>2281.816326805726</v>
+        <v>1407087.719592433</v>
       </c>
       <c r="S10">
-        <v>0.05032290145396577</v>
+        <v>0.6781355492565811</v>
       </c>
       <c r="T10">
-        <v>0.05032290145396577</v>
+        <v>0.6781355492565809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N11">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O11">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P11">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q11">
-        <v>489.3013371878121</v>
+        <v>532.1314392424907</v>
       </c>
       <c r="R11">
-        <v>489.3013371878121</v>
+        <v>4789.182953182416</v>
       </c>
       <c r="S11">
-        <v>0.01079099254542776</v>
+        <v>0.002308111404303439</v>
       </c>
       <c r="T11">
-        <v>0.01079099254542776</v>
+        <v>0.002308111404303438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N12">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O12">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P12">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q12">
-        <v>36680.35284233599</v>
+        <v>45328.87763181519</v>
       </c>
       <c r="R12">
-        <v>36680.35284233599</v>
+        <v>407959.8986863368</v>
       </c>
       <c r="S12">
-        <v>0.8089440678012658</v>
+        <v>0.196613264488195</v>
       </c>
       <c r="T12">
-        <v>0.8089440678012658</v>
+        <v>0.196613264488195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N13">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O13">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P13">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q13">
-        <v>2771.225866022558</v>
+        <v>6355.741299929265</v>
       </c>
       <c r="R13">
-        <v>2771.225866022558</v>
+        <v>57201.67169936338</v>
       </c>
       <c r="S13">
-        <v>0.06111628027386244</v>
+        <v>0.02756792381606329</v>
       </c>
       <c r="T13">
-        <v>0.06111628027386244</v>
+        <v>0.02756792381606329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N14">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O14">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P14">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q14">
-        <v>23.71767369327746</v>
+        <v>1742.694004179436</v>
       </c>
       <c r="R14">
-        <v>23.71767369327746</v>
+        <v>15684.24603761492</v>
       </c>
       <c r="S14">
-        <v>0.0005230667087280141</v>
+        <v>0.007558906707304725</v>
       </c>
       <c r="T14">
-        <v>0.0005230667087280141</v>
+        <v>0.007558906707304723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N15">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O15">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P15">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q15">
-        <v>5.085899910862067</v>
+        <v>5.931457080619556</v>
       </c>
       <c r="R15">
-        <v>5.085899910862067</v>
+        <v>53.383113725576</v>
       </c>
       <c r="S15">
-        <v>0.0001121638218696274</v>
+        <v>2.572759796226901E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001121638218696274</v>
+        <v>2.5727597962269E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N16">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O16">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P16">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q16">
-        <v>381.2632197643472</v>
+        <v>505.2629338505333</v>
       </c>
       <c r="R16">
-        <v>381.2632197643472</v>
+        <v>4547.3664046548</v>
       </c>
       <c r="S16">
-        <v>0.008408332963013484</v>
+        <v>0.002191569702125407</v>
       </c>
       <c r="T16">
-        <v>0.008408332963013484</v>
+        <v>0.002191569702125407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N17">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O17">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P17">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q17">
-        <v>28.80469827854345</v>
+        <v>70.84491528957068</v>
       </c>
       <c r="R17">
-        <v>28.80469827854345</v>
+        <v>637.6042376061361</v>
       </c>
       <c r="S17">
-        <v>0.0006352553340309992</v>
+        <v>0.0003072886600151706</v>
       </c>
       <c r="T17">
-        <v>0.0006352553340309992</v>
+        <v>0.0003072886600151705</v>
       </c>
     </row>
   </sheetData>
